--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H2">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I2">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J2">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N2">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q2">
-        <v>0.8244334103038889</v>
+        <v>5.304324104040001</v>
       </c>
       <c r="R2">
-        <v>7.419900692735</v>
+        <v>47.73891693636</v>
       </c>
       <c r="S2">
-        <v>3.249829374816129E-05</v>
+        <v>0.0001940929095652009</v>
       </c>
       <c r="T2">
-        <v>3.249829374816129E-05</v>
+        <v>0.0001940929095652009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H3">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I3">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J3">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P3">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q3">
-        <v>12.38469878460911</v>
+        <v>58.13793757694</v>
       </c>
       <c r="R3">
-        <v>111.462289061482</v>
+        <v>523.24143819246</v>
       </c>
       <c r="S3">
-        <v>0.0004881917375672184</v>
+        <v>0.002127351428588953</v>
       </c>
       <c r="T3">
-        <v>0.0004881917375672184</v>
+        <v>0.002127351428588953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H4">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I4">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J4">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N4">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q4">
-        <v>6.267648615330557</v>
+        <v>33.14987958698001</v>
       </c>
       <c r="R4">
-        <v>56.408837537975</v>
+        <v>298.34891628282</v>
       </c>
       <c r="S4">
-        <v>0.0002470640845768111</v>
+        <v>0.001213002157215936</v>
       </c>
       <c r="T4">
-        <v>0.0002470640845768111</v>
+        <v>0.001213002157215937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H5">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I5">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J5">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N5">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O5">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P5">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q5">
-        <v>1.299736820872333</v>
+        <v>7.247011921500001</v>
       </c>
       <c r="R5">
-        <v>11.697631387851</v>
+        <v>65.22310729350001</v>
       </c>
       <c r="S5">
-        <v>5.123425187783312E-05</v>
+        <v>0.0002651786734574365</v>
       </c>
       <c r="T5">
-        <v>5.123425187783312E-05</v>
+        <v>0.0002651786734574365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I6">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J6">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N6">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q6">
-        <v>977.2241744569239</v>
+        <v>1339.351283196039</v>
       </c>
       <c r="R6">
-        <v>8795.017570112315</v>
+        <v>12054.16154876435</v>
       </c>
       <c r="S6">
-        <v>0.03852114419720009</v>
+        <v>0.04900880534193017</v>
       </c>
       <c r="T6">
-        <v>0.03852114419720009</v>
+        <v>0.04900880534193018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I7">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J7">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P7">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q7">
         <v>14679.93278101896</v>
@@ -883,10 +883,10 @@
         <v>132119.3950291706</v>
       </c>
       <c r="S7">
-        <v>0.5786674360333913</v>
+        <v>0.5371600245014089</v>
       </c>
       <c r="T7">
-        <v>0.5786674360333913</v>
+        <v>0.5371600245014089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I8">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J8">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N8">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q8">
-        <v>7429.220683384032</v>
+        <v>8370.403635177461</v>
       </c>
       <c r="R8">
-        <v>66862.98615045629</v>
+        <v>75333.63271659715</v>
       </c>
       <c r="S8">
-        <v>0.2928520279151901</v>
+        <v>0.3062852050366484</v>
       </c>
       <c r="T8">
-        <v>0.29285202791519</v>
+        <v>0.3062852050366485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I9">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J9">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N9">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O9">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P9">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q9">
-        <v>1540.614712982165</v>
+        <v>1829.883417004117</v>
       </c>
       <c r="R9">
-        <v>13865.53241683948</v>
+        <v>16468.95075303705</v>
       </c>
       <c r="S9">
-        <v>0.06072940381780328</v>
+        <v>0.06695808732745614</v>
       </c>
       <c r="T9">
-        <v>0.06072940381780329</v>
+        <v>0.06695808732745616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H10">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N10">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O10">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P10">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q10">
-        <v>28.54388139680278</v>
+        <v>49.23863840280667</v>
       </c>
       <c r="R10">
-        <v>256.894932571225</v>
+        <v>443.14774562526</v>
       </c>
       <c r="S10">
-        <v>0.001125169638629815</v>
+        <v>0.00180171316895034</v>
       </c>
       <c r="T10">
-        <v>0.001125169638629815</v>
+        <v>0.00180171316895034</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H11">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I11">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J11">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>173.406322</v>
       </c>
       <c r="O11">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P11">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q11">
-        <v>428.7882669780523</v>
+        <v>539.6791051390678</v>
       </c>
       <c r="R11">
-        <v>3859.09440280247</v>
+        <v>4857.11194625161</v>
       </c>
       <c r="S11">
-        <v>0.01690238032794098</v>
+        <v>0.01974764092341287</v>
       </c>
       <c r="T11">
-        <v>0.01690238032794098</v>
+        <v>0.01974764092341287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H12">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I12">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J12">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N12">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O12">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P12">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q12">
-        <v>217.0011749607361</v>
+        <v>307.7215686795412</v>
       </c>
       <c r="R12">
-        <v>1953.010574646625</v>
+        <v>2769.494118115871</v>
       </c>
       <c r="S12">
-        <v>0.008553956983585482</v>
+        <v>0.01125997835529877</v>
       </c>
       <c r="T12">
-        <v>0.008553956983585482</v>
+        <v>0.01125997835529877</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H13">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I13">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J13">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N13">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O13">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P13">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q13">
-        <v>45.00003662923167</v>
+        <v>67.27209584191668</v>
       </c>
       <c r="R13">
-        <v>405.000329663085</v>
+        <v>605.4488625772501</v>
       </c>
       <c r="S13">
-        <v>0.00177385388653249</v>
+        <v>0.00246158352287747</v>
       </c>
       <c r="T13">
-        <v>0.00177385388653249</v>
+        <v>0.00246158352287747</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H14">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I14">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J14">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N14">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O14">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P14">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q14">
-        <v>0.05600874661999999</v>
+        <v>2.118220883861333</v>
       </c>
       <c r="R14">
-        <v>0.5040787195799999</v>
+        <v>19.063987954752</v>
       </c>
       <c r="S14">
-        <v>2.207805600032837E-06</v>
+        <v>7.75087732925826E-05</v>
       </c>
       <c r="T14">
-        <v>2.207805600032837E-06</v>
+        <v>7.75087732925826E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H15">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I15">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J15">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>173.406322</v>
       </c>
       <c r="O15">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P15">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q15">
-        <v>0.8413674743439999</v>
+        <v>23.21671736203022</v>
       </c>
       <c r="R15">
-        <v>7.572307269095999</v>
+        <v>208.950456258272</v>
       </c>
       <c r="S15">
-        <v>3.31658166561944E-05</v>
+        <v>0.0008495333495774224</v>
       </c>
       <c r="T15">
-        <v>3.31658166561944E-05</v>
+        <v>0.0008495333495774224</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H16">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I16">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J16">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N16">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O16">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P16">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q16">
-        <v>0.4257992687</v>
+        <v>13.23802351842489</v>
       </c>
       <c r="R16">
-        <v>3.8321934183</v>
+        <v>119.142211665824</v>
       </c>
       <c r="S16">
-        <v>1.678455717468342E-05</v>
+        <v>0.0004843984739972195</v>
       </c>
       <c r="T16">
-        <v>1.678455717468342E-05</v>
+        <v>0.0004843984739972197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H17">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I17">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J17">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N17">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O17">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P17">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q17">
-        <v>0.08829898129199999</v>
+        <v>2.894010942133334</v>
       </c>
       <c r="R17">
-        <v>0.7946908316279999</v>
+        <v>26.0460984792</v>
       </c>
       <c r="S17">
-        <v>3.480652525512136E-06</v>
+        <v>0.0001058960563221178</v>
       </c>
       <c r="T17">
-        <v>3.480652525512136E-06</v>
+        <v>0.0001058960563221178</v>
       </c>
     </row>
   </sheetData>
